--- a/biology/Botanique/Liste_d'espèces_de_bambous_par_pays/Liste_d'espèces_de_bambous_par_pays.xlsx
+++ b/biology/Botanique/Liste_d'espèces_de_bambous_par_pays/Liste_d'espèces_de_bambous_par_pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,8 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nombre d'espèces de bambous indigènes par pays ou territoire américain
-Selon Bamboo Biodiversity: Africa, Madagascar and the Americas (UNEP-WCMC)[1]
+          <t>Nombre d'espèces de bambous indigènes par pays ou territoire américain</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Bamboo Biodiversity: Africa, Madagascar and the Americas (UNEP-WCMC)
 Brésil : 134
 Venezuela : 68
 Colombie : 56
@@ -543,9 +560,44 @@
 Jamaïque : 1
 Martinique : 1
 Îles Vierges : 1
-Argentine
-En Argentine, on recense 13 espèces de bambous ligneux indigènes répartis en 5 genres, listées ci-dessous.
-Diverses espèces de bambous asiatiques ont été introduits dans le pays, notamment Bambusa tuldoides, Bambusa vulgaris 'Vittata', Bambusa arundinacea, Dendrocalamus asper, Phyllostachys aurea et Phyllostachys bambusoides)[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Argentine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Argentine, on recense 13 espèces de bambous ligneux indigènes répartis en 5 genres, listées ci-dessous.
+Diverses espèces de bambous asiatiques ont été introduits dans le pays, notamment Bambusa tuldoides, Bambusa vulgaris 'Vittata', Bambusa arundinacea, Dendrocalamus asper, Phyllostachys aurea et Phyllostachys bambusoides).
 Chusquea
 Chusquea andina R.A. Philippi
 Chusquea culeou E. Desvaux
@@ -564,8 +616,43 @@
 Merostachys clausenii var. clausenii Munro
 Rhipidocladum
 Rhipidocladum racemiflorum (Steudel) McClure
-Chili
-Chusquea andina R.A. Philippi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chili</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chusquea andina R.A. Philippi
 Chusquea ciliate R. A. Philippi
 Chusquea culeou E. Desvaux
 Chusquea cumingii Nees
@@ -574,19 +661,121 @@
 Chusquea montana R.A. Philippi
 Chusquea quila Kunth
 Chusquea uliginosa R.A. Philippi
-Chusquea valdiviensis E. Desvaux
-Uruguay
-Chusquea juergensii Hackel
+Chusquea valdiviensis E. Desvaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chusquea juergensii Hackel
 Chusquea tenella Nees
-Guadua trinii (Nees) Ruprecht
-Paraguay
-Chusquea ramosissima Lindman
+Guadua trinii (Nees) Ruprecht</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chusquea ramosissima Lindman
 Guadua chacoensis Rojas X. Londoño &amp; L.G. Clark
 Guadua paniculata Munro
 Guadua paraguayana Doell
-Merostachys clausenii var. clausenii Munro
-Brésil
-Actinocladum verticillatum (Nees) Soderstrom
+Merostachys clausenii var. clausenii Munro</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Brésil</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Actinocladum verticillatum (Nees) Soderstrom
 Alvimia auriculata Soderstrom &amp; X. Londoño
 Alvimia lancifolia Soderstrom &amp; X. Londoño
 Apoclada arenicola McClure
@@ -720,9 +909,43 @@
 Myriocladus neblinaensis Swallen
 Myriocladus paludicolus Swallen
 Myriocladus virgatus Swallen
-Rhipidocladum parviflorum (Trinius) McClure
-Bolivie
-Actinocladum verticillatum (Nees) Soderstrom
+Rhipidocladum parviflorum (Trinius) McClure</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bolivie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Actinocladum verticillatum (Nees) Soderstrom
 Arthrostylidium canaliculatum Renvoize
 Aulonemia boliviana Renvoize
 Aulonemia herzogiana (Henrard) McClure
@@ -750,9 +973,43 @@
 Pariana aurita Swallen
 Pariana bicolor Tutin
 Rhipidocladum harmonicum (Parodi) McClure
-Rhipidocladum racemiflorum (Steudel) McClure
-Pérou
-Arthrostylidium simpliciusculum (Pilger) McClure
+Rhipidocladum racemiflorum (Steudel) McClure</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pérou</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Arthrostylidium simpliciusculum (Pilger) McClure
 Aulonemia haenkii (Ruprecht) McClure
 Aulonemia  hirtula (Pilger) McClure
 Aulonemia humillima (Pilger) McClure
@@ -795,9 +1052,43 @@
 Pariana aurita Swallen
 Pharus virescens
 Pharus lappulaceus
-Pariana radiciflora  Sagot ex Doell
-Guyanes
-Arthrostylidium scandens McClure
+Pariana radiciflora  Sagot ex Doell</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Guyanes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Arthrostylidium scandens McClure
 Arthrostylidium venezuelae (Steudel) McClure
 Aulonemia deflexa (N.E. Brown) McClure
 Chusquea linearis N.E. Brown
@@ -809,9 +1100,43 @@
 Myriocladus distantiflorus Swallen
 Neurolepis angusta Swallen
 Rhipidocladum racemiflorum (Steudel) McClure
-Rhipidocladum sibilans Davidse, Judziewicz, &amp; L.G. Clark
-Mexique
-Arthrostylidium excelsum Grisebach
+Rhipidocladum sibilans Davidse, Judziewicz, &amp; L.G. Clark</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mexique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Arthrostylidium excelsum Grisebach
 Aulonemia clarkiae Davidse &amp; R. Pohl
 Aulonemia fulgor Soderstrom
 Aulonemia laxa (F. Maekino) McClure
@@ -847,43 +1172,82 @@
 Rhipidocladum bartlettii (McClure) McClure
 Rhipidocladum martinezii Davidse &amp; R. Pohl
 Rhipidocladum pittieri (Hackel) McClure
-Rhipidocladum racemiflorum (Steudel) McClure
-États-Unis
-Le genre Arundinaria classé dans la tribu des Arundinarieae est le seul genre de bambous indigène des États-Unis. Il comprend trois espèces acceptées[3] :
+Rhipidocladum racemiflorum (Steudel) McClure</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le genre Arundinaria classé dans la tribu des Arundinarieae est le seul genre de bambous indigène des États-Unis. Il comprend trois espèces acceptées :
 Arundinaria appalachiana Triplett, Weakley &amp; L.G.Clark (2006)
-Arundinaria gigantea (Walter) Muhl. (1813)[4]
+Arundinaria gigantea (Walter) Muhl. (1813)
 Arundinaria tecta Muhl. (1817)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Asie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nombre d'espèces de bambous indigènes par pays ou territoire asiatique
-L'Asie est principal centre de biodiversité des bambous ligneux avec environ 60 genres comprenant 1012 espèces (données de The Bamboos of the World,  D. Ohrnberger, 1999)[5].
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nombre d'espèces de bambous indigènes par pays ou territoire asiatique</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Asie est principal centre de biodiversité des bambous ligneux avec environ 60 genres comprenant 1012 espèces (données de The Bamboos of the World,  D. Ohrnberger, 1999).
 Chine : 626
 Inde : 102
 Japon :  84
@@ -907,14 +1271,88 @@
 Singapour :  3
 Corée du Nord :  2
 Russie (Sakhaline et îles Kouriles) :  1
-Bangladesh
-Bhoutan
-Brunei
-Cambodge
-Chine
-Tribu des Bambuseae
-Les bambous  appartenant à la tribu des Bambuseae (bambous ligneux tropicaux) sont représentés en Chine par  34 genres (dont 5 endémiques et un introduit) et 534 espèces (dont 469 endémiques et 3 introduites)[6].
-Liste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tribu des Bambuseae</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bambous  appartenant à la tribu des Bambuseae (bambous ligneux tropicaux) sont représentés en Chine par  34 genres (dont 5 endémiques et un introduit) et 534 espèces (dont 469 endémiques et 3 introduites).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acidosasa chienouensis (Wen) Chao et Wen
 Acidosasa chinensis Chu et Chao
 Acidosasa edulis (Wen) Wen
@@ -943,9 +1381,43 @@
 Sinarundinaria nitida
 Sinobambusa tootsik
 On a par ailleurs trouvé des fossiles de deux espèces du genre (aujourd'hui éteint) Bambusiculmus datant du Miocène moyen (de 16 à 12 millions d'années) dans la province du Yunnan.
-Hong Kong
-Inde
-Avec environ 148 espèces et 29 genres, l'Inde est un des principaux centres de biodiversité des bambous, le second pays après la Chine pour le nombre d'espèces. 71 espèces sont endémiques de l'Inde[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Inde</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec environ 148 espèces et 29 genres, l'Inde est un des principaux centres de biodiversité des bambous, le second pays après la Chine pour le nombre d'espèces. 71 espèces sont endémiques de l'Inde.
 Ampelocalamus (monotypique) :
 Ampelocalamus patellaris (Gamble) Stapleton
 Bambusa :
@@ -977,7 +1449,7 @@
 Bambusa nagalandeana Naithani (endémique) ;
 Bambusa nairiana Kumari and Singh (endémique) ;
 Bambusa nutans Wall. ex Munro;
-Bambusa oliveriana Gamble[8] ;
+Bambusa oliveriana Gamble ;
 Bambusa pallida Munro;
 Bambusa polymorpha Munro;
 Bambusa pseudopallida R. Majumdar (endémique) ;
@@ -987,7 +1459,7 @@
 Bambusa tulda Roxb.;
 Bambusa vulgaris Schrad. ex Wendl.;
 Bambusa vulgaris var. vittata A. &amp; C. Riviere (seulement cultivé) ;
-Bambusa wamin Camus[8] (seulement cultivé).
+Bambusa wamin Camus (seulement cultivé).
 Cephalostachyum :
 Cephalostachyum capitatum Munro ;
 Cephalostachyum flavescens Kurz. ;
@@ -1026,7 +1498,7 @@
 Dinochloa :
 Dinochloa andamanica Kurz. (endémique) ;
 Dinochloa nicobariana Majumdar. (endémique)
-Drepanostachyum[9] :
+Drepanostachyum :
 Drepanostachyum falcatum (Nees) Keng f. (endémique) ;
 Drepanostachyum falconeri (Munro) D.C. McClint. (endémique) ;
 Drepanostachyum hookerianum (Munro) Keng f.;
@@ -1041,7 +1513,7 @@
 Gigantochloa bastareana Naithani &amp; Pal (endémique) ;
 Gigantochloa macrostachya Kurz ;
 Gigantochloa pseudoarundinacea (Steud.) Widjaja (seulement cultivé).
-Indocalamus[10] :
+Indocalamus :
 Indocalamus walkerianus (Munro) Nakai;
 Indocalamus wightianus (Munro) Nakai (endémique) ;
 Indocalamus wightianus var. hispidus (Steud) Nakai (endémique)
@@ -1126,63 +1598,119 @@
 Yushania yadongensis Yi.
 Borinda (monotypique) :
 Borinda grossa (T.P.Yi) Stapleton.
-Indonesie
-Laos
-Malaisie
-Taïwan
-Arundinaria graminea (Bean) Makino
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Taïwan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Arundinaria graminea (Bean) Makino
 Arundinaria hindsii Munro
 Arundinaria kunishii Hayata
 Arundinaria linearis Hackel
 Arundinaria simonii A. &amp; C. Rivière
 Arundinaria usawai Hayata
-Arundinaria variegata (Siebold) Makino
-Japon
-Myanmar
-Népal
-Corée du Nord
-Pakistan
-Papouasie-Nouvelle-Guinée
-Philippines
-Russie (Sakhaline)
-Singapour
-Corée du Sud
-Sri Lanka
-Thaïlande
-Viêt Nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Arundinaria variegata (Siebold) Makino</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le continent africain contient environ 17 espèces de bambous ligneux, soit beaucoup moins que l'Asie du Sud-Est et que le continent américain.
-Il est à noter que l'île de Madagascar abrite environ deux fois plus d'espèces (avec un fort taux d'endémisme) que le contient africain[11].
-Nombre d'espèces de bambous indigènes par pays ou territoire africain
-Selon Bamboo Biodiversity: Africa, Madagascar and the Americas (UNEP-WCMC)[1]
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le continent africain contient environ 17 espèces de bambous ligneux, soit beaucoup moins que l'Asie du Sud-Est et que le continent américain.
+Il est à noter que l'île de Madagascar abrite environ deux fois plus d'espèces (avec un fort taux d'endémisme) que le contient africain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nombre d'espèces de bambous indigènes par pays ou territoire africain</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Bamboo Biodiversity: Africa, Madagascar and the Americas (UNEP-WCMC)
 Madagascar : 33
 Tanzanie : 4
 Tanzanie : 4
@@ -1215,9 +1743,44 @@
 Sénégal : 1
 Sierra Leone : 1
 Togo : 1
-Madagascar
-On recense à Madagascar 33 espèces de bambous ligneux, dont 32 espèces endémiques de l'île.
-L'unique espèce à distribution pantropicale est Bambusa vulgaris, possiblement introduite[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>On recense à Madagascar 33 espèces de bambous ligneux, dont 32 espèces endémiques de l'île.
+L'unique espèce à distribution pantropicale est Bambusa vulgaris, possiblement introduite.
 Arundinaria ambositrensis
 Arundinaria humbertii
 Arundinaria ibityensis
@@ -1230,69 +1793,117 @@
 Hickelia madagascariensis
 Perrierbambus
 Sirochloa parvifolia
-Valiha diffusa
-Tanzania
-Malawi
-Uganda
-Zambia
-Cameroun
-Congo
-République Démo. Congo
-Éthiopie
-Soudan
-Zimbabwe
-Angola
-Bénin
-Bouroundi
-RCA
-Comores
-Érythrée
-Gambie
-Ghana
-Guinée
-Guinée-Bissau
-Côte d'Ivoire
-Des études ont évoqué l’utilisation du bambou de chine dans la pharmacopée africaine (N’Guessan et al., 2006; Koulibaly et al., 2016). Zadou et al. (2011), lors d’un inventaire dans la forêt de Marais, au Sud-Est de la Côte d’Ivoire, sur les usages des espèces qu’on y trouve, ont mentionné les quelques usages du bambou de chine local par les populations riveraines de la forêt. Il ressort de ces études que l’espèce la plus connue et la plus utilisée en Côte d’Ivoire, est Bambusa vulgaris (Schrad. ex J.C. Wendl.)[12].
-Kenya
-Mozambique
-Nigéria
-Réunion
-Nastus borbonicus (calumet), espèce endémique de La Réunion[13]
-Rwanda
-Sénégal
-Maurice
-Sierra Leone
-Togo</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Océanie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Australie</t>
+Valiha diffusa</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Côte d'Ivoire</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études ont évoqué l’utilisation du bambou de chine dans la pharmacopée africaine (N’Guessan et al., 2006; Koulibaly et al., 2016). Zadou et al. (2011), lors d’un inventaire dans la forêt de Marais, au Sud-Est de la Côte d’Ivoire, sur les usages des espèces qu’on y trouve, ont mentionné les quelques usages du bambou de chine local par les populations riveraines de la forêt. Il ressort de ces études que l’espèce la plus connue et la plus utilisée en Côte d’Ivoire, est Bambusa vulgaris (Schrad. ex J.C. Wendl.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Réunion</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nastus borbonicus (calumet), espèce endémique de La Réunion</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_bambous_par_pays</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sénégal</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice
+</t>
         </is>
       </c>
     </row>
